--- a/excel/xcel - Copy.xlsx
+++ b/excel/xcel - Copy.xlsx
@@ -5,35 +5,101 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filmm\OneDrive\Desktop\project1\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filmm\OneDrive\Desktop\UntitledProject\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D4E4D82-9F86-4CC9-8615-B99C6C55AFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB462596-7016-4EC4-998F-030CAC234982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2568" yWindow="2244" windowWidth="17280" windowHeight="8880" xr2:uid="{FF380BD6-738C-429F-94C4-FC7D28A642E3}"/>
+    <workbookView xWindow="12924" yWindow="2724" windowWidth="9804" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="accept" sheetId="1" r:id="rId1"/>
+    <sheet name="reject" sheetId="2" r:id="rId2"/>
+    <sheet name="font_line" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+  <si>
+    <t>d/m/y</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
     <t>run</t>
+  </si>
+  <si>
+    <t>06-05-2023</t>
+  </si>
+  <si>
+    <t>20:41:08</t>
+  </si>
+  <si>
+    <t>th0000-0</t>
+  </si>
+  <si>
+    <t>th0000-1</t>
+  </si>
+  <si>
+    <t>20:41:09</t>
+  </si>
+  <si>
+    <t>th0000-2</t>
+  </si>
+  <si>
+    <t>24-05-2023</t>
+  </si>
+  <si>
+    <t>th0000-3</t>
+  </si>
+  <si>
+    <t>th0000-4</t>
+  </si>
+  <si>
+    <t>06-05-2024</t>
+  </si>
+  <si>
+    <t>20:41:10</t>
+  </si>
+  <si>
+    <t>th0000-5</t>
+  </si>
+  <si>
+    <t>06-05-2025</t>
+  </si>
+  <si>
+    <t>20:41:11</t>
+  </si>
+  <si>
+    <t>th0000-6</t>
+  </si>
+  <si>
+    <t>06-05-2026</t>
+  </si>
+  <si>
+    <t>20:41:12</t>
+  </si>
+  <si>
+    <t>th0000-7</t>
+  </si>
+  <si>
+    <t>th0000-8</t>
+  </si>
+  <si>
+    <t>21:21:53</t>
+  </si>
+  <si>
+    <t>4987072024201</t>
+  </si>
+  <si>
+    <t>13:25:04</t>
+  </si>
+  <si>
+    <t>21:14:06</t>
   </si>
 </sst>
 </file>
@@ -70,8 +136,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -385,24 +455,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BBD1F5-3C68-4FB0-8C70-306EAB2C5389}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="A5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5"/>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6"/>
+      <c r="C6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
